--- a/Solver_y_Sensibilidad_punto3.xlsx
+++ b/Solver_y_Sensibilidad_punto3.xlsx
@@ -8,59 +8,57 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/j_murilloa_uniandes_edu_co/Documents/2024-01/Optimizacion/Entrenamientos/Entrenamiento3-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="336" documentId="8_{ACAD5EC4-47FA-4EA2-BD24-65EC2B517B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36849D4A-28B5-4E2D-8EDE-0555209FE380}"/>
+  <xr:revisionPtr revIDLastSave="510" documentId="8_{ACAD5EC4-47FA-4EA2-BD24-65EC2B517B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E21C1BD0-664B-4CEC-95F9-D9AE5F43C676}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="2" activeTab="2" xr2:uid="{2DDE50EC-BC46-4138-8D30-560AB944A378}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2DDE50EC-BC46-4138-8D30-560AB944A378}"/>
   </bookViews>
   <sheets>
-    <sheet name="Informe de sensibilidad 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Informe de sensibilidad 2" sheetId="3" r:id="rId2"/>
-    <sheet name="Informe de sensibilidad 3" sheetId="4" r:id="rId3"/>
-    <sheet name="Solver" sheetId="1" r:id="rId4"/>
+    <sheet name="Informe de sensibilidad 1" sheetId="5" r:id="rId1"/>
+    <sheet name="Solver" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">Solver!$B$4:$C$4</definedName>
-    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Solver!$B$10</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Solver!$B$13</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Solver!$B$16</definedName>
-    <definedName name="solver_lhs4" localSheetId="3" hidden="1">Solver!$B$19</definedName>
-    <definedName name="solver_lhs5" localSheetId="3" hidden="1">Solver!$B$22</definedName>
-    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">5</definedName>
-    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">Solver!$E$4</definedName>
-    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">Solver!$D$10</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">Solver!$D$13</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">Solver!$D$16</definedName>
-    <definedName name="solver_rhs4" localSheetId="3" hidden="1">Solver!$D$19</definedName>
-    <definedName name="solver_rhs5" localSheetId="3" hidden="1">Solver!$D$22</definedName>
-    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Solver!$B$4:$C$4</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Solver!$B$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Solver!$B$13</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Solver!$B$16</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">Solver!$B$19</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">Solver!$B$22</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">5</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Solver!$E$4</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Solver!$D$10</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Solver!$D$13</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">Solver!$D$16</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">Solver!$D$19</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">Solver!$D$22</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t xml:space="preserve">Variables de decisión </t>
   </si>
@@ -121,12 +119,6 @@
     <t>Microsoft Excel 16.0 Informe de sensibilidad</t>
   </si>
   <si>
-    <t>Hoja de cálculo: [Libro1]Hoja1</t>
-  </si>
-  <si>
-    <t>Informe creado: 5/15/2024 2:31:37 PM</t>
-  </si>
-  <si>
     <t>Celdas de variables</t>
   </si>
   <si>
@@ -199,10 +191,7 @@
     <t>Hoja de cálculo: [Solver_y_Sensibilidad_punto3.xlsx]Solver</t>
   </si>
   <si>
-    <t>Informe creado: 5/15/2024 4:08:25 PM</t>
-  </si>
-  <si>
-    <t>Informe creado: 5/15/2024 4:08:55 PM</t>
+    <t>Informe creado: 5/19/2024 2:54:46 PM</t>
   </si>
 </sst>
 </file>
@@ -345,9 +334,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -361,6 +347,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -707,11 +696,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6EDB35-2E7A-4F52-8072-B37D8B8D657E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD890C7-6ED4-4E06-8C97-C956DC014D02}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="121" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="119" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -725,70 +714,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>12</v>
+      <c r="A2" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>13</v>
+      <c r="A3" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>23</v>
-      </c>
       <c r="H7" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="H8" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>9</v>
@@ -806,18 +795,18 @@
         <v>1E+30</v>
       </c>
       <c r="H9" s="9">
-        <v>12000.000000000002</v>
+        <v>2500.0000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="10">
-        <v>41.081081081081081</v>
+        <v>24.142857142857139</v>
       </c>
       <c r="E10" s="10">
         <v>0</v>
@@ -826,7 +815,7 @@
         <v>9500</v>
       </c>
       <c r="G10" s="10">
-        <v>1E+30</v>
+        <v>2500.0000000000005</v>
       </c>
       <c r="H10" s="10">
         <v>9500</v>
@@ -841,53 +830,53 @@
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="G13" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>18</v>
-      </c>
       <c r="E14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>29</v>
-      </c>
       <c r="G14" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="9">
-        <v>279.72509652509655</v>
+        <v>235.68571428571428</v>
       </c>
       <c r="E15" s="9">
         <v>0</v>
@@ -899,12 +888,12 @@
         <v>1E+30</v>
       </c>
       <c r="H15" s="9">
-        <v>440.27490347490345</v>
+        <v>484.31428571428575</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>5</v>
@@ -913,50 +902,50 @@
         <v>17.8</v>
       </c>
       <c r="E16" s="9">
-        <v>34285.71428571429</v>
+        <v>7142.8571428571449</v>
       </c>
       <c r="F16" s="9">
         <v>17.8</v>
       </c>
       <c r="G16" s="9">
-        <v>1.0962162162162168</v>
+        <v>8.4499999999999975</v>
       </c>
       <c r="H16" s="9">
-        <v>17.8</v>
+        <v>5.9283783783783788</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="9">
-        <v>15.2</v>
+        <v>8.9328571428571415</v>
       </c>
       <c r="E17" s="9">
-        <v>25675.675675675677</v>
+        <v>0</v>
       </c>
       <c r="F17" s="9">
         <v>15.2</v>
       </c>
       <c r="G17" s="9">
-        <v>1.0346938775510213</v>
+        <v>1E+30</v>
       </c>
       <c r="H17" s="9">
-        <v>15.200000000000001</v>
+        <v>6.2671428571428578</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="9">
-        <v>39.650965250965257</v>
+        <v>31.689999999999998</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
@@ -968,30 +957,30 @@
         <v>1E+30</v>
       </c>
       <c r="H18" s="9">
-        <v>2.3490347490347467</v>
+        <v>10.31</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="10">
-        <v>72.650965250965243</v>
+        <v>75</v>
       </c>
       <c r="E19" s="10">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="F19" s="10">
         <v>75</v>
       </c>
       <c r="G19" s="10">
-        <v>1E+30</v>
+        <v>16.938223938223942</v>
       </c>
       <c r="H19" s="10">
-        <v>2.3490347490347503</v>
+        <v>24.142857142857139</v>
       </c>
     </row>
   </sheetData>
@@ -1000,638 +989,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0C3D4B-0EF3-4780-A539-5706B33842C3}">
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="134" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="2.1796875" customWidth="1"/>
-    <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="9">
-        <v>50.857142857142861</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>12000</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1E+30</v>
-      </c>
-      <c r="H9" s="9">
-        <v>3517.8571428571427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="10">
-        <v>37.925170068027214</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>9500</v>
-      </c>
-      <c r="G10" s="10">
-        <v>3939.9999999999995</v>
-      </c>
-      <c r="H10" s="10">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="9">
-        <v>271.51972789115644</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>720</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1E+30</v>
-      </c>
-      <c r="H15" s="9">
-        <v>448.48027210884356</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="9">
-        <v>17.8</v>
-      </c>
-      <c r="E16" s="9">
-        <v>10051.020408163266</v>
-      </c>
-      <c r="F16" s="9">
-        <v>17.8</v>
-      </c>
-      <c r="G16" s="9">
-        <v>14.866666666666665</v>
-      </c>
-      <c r="H16" s="9">
-        <v>1.2371171171171147</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="9">
-        <v>14.03231292517007</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
-        <v>15.2</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1E+30</v>
-      </c>
-      <c r="H17" s="9">
-        <v>1.1676870748299297</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="9">
-        <v>38.167687074829935</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>42</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1E+30</v>
-      </c>
-      <c r="H18" s="9">
-        <v>3.8323129251700649</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="10">
-        <v>70</v>
-      </c>
-      <c r="E19" s="10">
-        <v>11309.523809523811</v>
-      </c>
-      <c r="F19" s="10">
-        <v>70</v>
-      </c>
-      <c r="G19" s="10">
-        <v>2.6509652509652453</v>
-      </c>
-      <c r="H19" s="10">
-        <v>31.857142857142854</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB6D92F-AC5B-4A46-843C-9F6E0C8AEF20}">
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="2.1796875" customWidth="1"/>
-    <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="9">
-        <v>50.857142857142861</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>12000</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1E+30</v>
-      </c>
-      <c r="H9" s="9">
-        <v>12000.000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="10">
-        <v>41.081081081081081</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>9500</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1E+30</v>
-      </c>
-      <c r="H10" s="10">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="9">
-        <v>279.72509652509655</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>720</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1E+30</v>
-      </c>
-      <c r="H15" s="9">
-        <v>440.27490347490345</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="9">
-        <v>17.8</v>
-      </c>
-      <c r="E16" s="9">
-        <v>34285.71428571429</v>
-      </c>
-      <c r="F16" s="9">
-        <v>17.8</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1.0962162162162168</v>
-      </c>
-      <c r="H16" s="9">
-        <v>17.8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="9">
-        <v>15.2</v>
-      </c>
-      <c r="E17" s="9">
-        <v>25675.675675675677</v>
-      </c>
-      <c r="F17" s="9">
-        <v>15.2</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1.0346938775510213</v>
-      </c>
-      <c r="H17" s="9">
-        <v>15.200000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="9">
-        <v>39.650965250965257</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>42</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1E+30</v>
-      </c>
-      <c r="H18" s="9">
-        <v>2.3490347490347467</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="10">
-        <v>72.650965250965243</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-      <c r="F19" s="10">
-        <v>75</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1E+30</v>
-      </c>
-      <c r="H19" s="10">
-        <v>2.3490347490347503</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D20">
-        <f>75-H19</f>
-        <v>72.650965250965243</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11275BB-B33A-411E-842E-4BE3C9F61D37}">
   <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="92" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" style="2"/>
-    <col min="2" max="2" width="16.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.08984375" style="2" customWidth="1"/>
     <col min="4" max="16384" width="10.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>50.857142857142861</v>
       </c>
-      <c r="C4" s="5">
-        <v>41.081081081081081</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="C4" s="4">
+        <v>24.142857142857139</v>
+      </c>
+      <c r="E4" s="6">
         <f>(12000*B4)+(C4*9500)</f>
-        <v>1000555.9845559846</v>
+        <v>839642.85714285716</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
@@ -1645,14 +1044,14 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <f>(3.4*B4)+(2.6*C4)</f>
-        <v>279.72509652509655</v>
-      </c>
-      <c r="C10" s="6" t="s">
+        <v>235.68571428571428</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>720</v>
       </c>
     </row>
@@ -1662,14 +1061,14 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <f>0.35*B4</f>
         <v>17.8</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>17.8</v>
       </c>
     </row>
@@ -1679,14 +1078,14 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <f>0.37*C4</f>
-        <v>15.2</v>
-      </c>
-      <c r="C16" s="6" t="s">
+        <v>8.9328571428571415</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>15.2</v>
       </c>
     </row>
@@ -1696,14 +1095,14 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <f>(0.4*B4)+(C4*0.47)</f>
-        <v>39.650965250965257</v>
-      </c>
-      <c r="C19" s="6" t="s">
+        <v>31.689999999999998</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>42</v>
       </c>
     </row>
@@ -1713,14 +1112,14 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="6">
-        <f>(0.75*B4)+(0.84*C4)</f>
-        <v>72.650965250965243</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="5">
+        <f>(B4)+(C4)</f>
+        <v>75</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>75</v>
       </c>
     </row>

--- a/Solver_y_Sensibilidad_punto3.xlsx
+++ b/Solver_y_Sensibilidad_punto3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/j_murilloa_uniandes_edu_co/Documents/2024-01/Optimizacion/Entrenamientos/Entrenamiento3-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="510" documentId="8_{ACAD5EC4-47FA-4EA2-BD24-65EC2B517B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E21C1BD0-664B-4CEC-95F9-D9AE5F43C676}"/>
+  <xr:revisionPtr revIDLastSave="848" documentId="8_{ACAD5EC4-47FA-4EA2-BD24-65EC2B517B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A6D1A2B-4BCB-463F-9FA7-1949C04B3628}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2DDE50EC-BC46-4138-8D30-560AB944A378}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{2DDE50EC-BC46-4138-8D30-560AB944A378}"/>
   </bookViews>
   <sheets>
     <sheet name="Informe de sensibilidad 1" sheetId="5" r:id="rId1"/>
@@ -198,7 +198,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +228,13 @@
       <b/>
       <sz val="11"/>
       <color indexed="18"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -323,10 +334,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -347,19 +359,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -699,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD890C7-6ED4-4E06-8C97-C956DC014D02}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="119" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" topLeftCell="C7" zoomScale="107" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -734,90 +750,90 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>50.857142857142861</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>0</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>12000</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>1E+30</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>2500.0000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>24.142857142857139</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>0</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>9500</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>2500.0000000000005</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>9500</v>
       </c>
     </row>
@@ -827,159 +843,159 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>235.68571428571428</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>0</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>720</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>1E+30</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>484.31428571428575</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>17.8</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>7142.8571428571449</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>17.8</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>8.4499999999999975</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>5.9283783783783788</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>8.9328571428571415</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>0</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>15.2</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>1E+30</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>6.2671428571428578</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>31.689999999999998</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>0</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>42</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>1E+30</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>10.31</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>75</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>9500</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>75</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>16.938223938223942</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <v>24.142857142857139</v>
       </c>
     </row>
@@ -992,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11275BB-B33A-411E-842E-4BE3C9F61D37}">
   <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1001,14 +1017,16 @@
     <col min="1" max="1" width="10.90625" style="2"/>
     <col min="2" max="2" width="17.1796875" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.08984375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.90625" style="2"/>
+    <col min="4" max="4" width="10.90625" style="2"/>
+    <col min="5" max="5" width="14.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -1028,7 +1046,7 @@
       <c r="C4" s="4">
         <v>24.142857142857139</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="13">
         <f>(12000*B4)+(C4*9500)</f>
         <v>839642.85714285716</v>
       </c>

--- a/Solver_y_Sensibilidad_punto3.xlsx
+++ b/Solver_y_Sensibilidad_punto3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/j_murilloa_uniandes_edu_co/Documents/2024-01/Optimizacion/Entrenamientos/Entrenamiento3-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="848" documentId="8_{ACAD5EC4-47FA-4EA2-BD24-65EC2B517B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A6D1A2B-4BCB-463F-9FA7-1949C04B3628}"/>
+  <xr:revisionPtr revIDLastSave="1895" documentId="8_{ACAD5EC4-47FA-4EA2-BD24-65EC2B517B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A059C95-889D-4323-A4B6-DE75A44B4DBD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{2DDE50EC-BC46-4138-8D30-560AB944A378}"/>
   </bookViews>
@@ -200,7 +200,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -338,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -367,10 +367,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -715,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD890C7-6ED4-4E06-8C97-C956DC014D02}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C7" zoomScale="107" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1006,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11275BB-B33A-411E-842E-4BE3C9F61D37}">
-  <dimension ref="B2:E22"/>
+  <dimension ref="B2:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1019,16 +1029,26 @@
     <col min="3" max="3" width="21.08984375" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.90625" style="2"/>
     <col min="5" max="5" width="14.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.90625" style="2"/>
+    <col min="6" max="6" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" style="2"/>
+    <col min="8" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.90625" style="2"/>
+    <col min="12" max="12" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.90625" style="2"/>
+    <col min="20" max="20" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1039,29 +1059,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <v>50.857142857142861</v>
       </c>
       <c r="C4" s="4">
         <v>24.142857142857139</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <f>(12000*B4)+(C4*9500)</f>
         <v>839642.85714285716</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="5">
         <f>(3.4*B4)+(2.6*C4)</f>
         <v>235.68571428571428</v>
@@ -1073,12 +1098,15 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
         <f>0.35*B4</f>
         <v>17.8</v>
@@ -1090,12 +1118,12 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="5">
         <f>0.37*C4</f>
         <v>8.9328571428571415</v>
@@ -1107,12 +1135,26 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="R17" s="16"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="R18" s="16"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="5">
         <f>(0.4*B4)+(C4*0.47)</f>
         <v>31.689999999999998</v>
@@ -1123,13 +1165,33 @@
       <c r="D19" s="5">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="R19" s="16"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="R20" s="16"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="R21" s="16"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="5">
         <f>(B4)+(C4)</f>
         <v>75</v>
@@ -1138,8 +1200,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="5">
+        <f>75</f>
         <v>75</v>
       </c>
+      <c r="F22" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
